--- a/zhishikuangjia_2018067.xlsx
+++ b/zhishikuangjia_2018067.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>前端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,18 @@
   </si>
   <si>
     <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html css 练习不少于模仿5个大型商业网站20个页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log4Net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C50"/>
+  <dimension ref="B3:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -568,7 +580,7 @@
     <col min="3" max="3" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -576,32 +588,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -609,154 +624,164 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>3</v>
       </c>
     </row>
